--- a/annual_variables.xlsx
+++ b/annual_variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasmurray/Banzai-predicament/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lyle_\Desktop\4 Yr Sem 2\DS\Banzai-predicament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D6CEE7C-E6BF-AC4D-80B1-B3FB5600BCF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C3F27E-0518-42E3-88DA-02CA65CDB055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="25560" windowHeight="17440" xr2:uid="{C3AAA45F-9A69-F943-9F42-C649CDEB03DC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C3AAA45F-9A69-F943-9F42-C649CDEB03DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -395,13 +395,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93EBE920-0F4E-7148-AC17-2BCBE20E885F}">
   <dimension ref="A1:C241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="H236" sqref="H236"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -412,1924 +412,2644 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1784</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1785</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1786</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1787</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1788</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1789</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1790</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1791</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1792</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1793</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1794</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1795</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1796</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1797</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1798</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1799</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1800</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1801</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1802</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1803</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1804</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1805</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1806</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1807</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1808</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1809</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1810</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1811</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1812</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1813</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1814</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1815</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1816</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1817</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1818</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1819</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1820</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1821</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1822</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1823</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1824</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1825</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1826</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1827</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1828</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1829</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1830</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1831</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1832</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1833</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1834</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1835</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1836</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1837</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1838</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1839</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1840</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1841</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1842</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1843</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1844</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1845</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1846</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1847</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1848</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1849</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1850</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1851</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1852</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1853</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1854</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1855</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1856</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1857</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1858</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1859</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1860</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1861</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1862</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1863</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1864</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1865</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1866</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1867</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1868</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1869</v>
       </c>
       <c r="B87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1870</v>
       </c>
       <c r="B88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1871</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1872</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1873</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1874</v>
       </c>
       <c r="B92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1875</v>
       </c>
       <c r="B93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1876</v>
       </c>
       <c r="B94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1877</v>
       </c>
       <c r="B95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1878</v>
       </c>
       <c r="B96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1879</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1880</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1881</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1882</v>
       </c>
       <c r="B100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1883</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1884</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1885</v>
       </c>
       <c r="B103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1886</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1887</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1888</v>
       </c>
       <c r="B106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1889</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1890</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1891</v>
       </c>
       <c r="B109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1892</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1893</v>
       </c>
       <c r="B111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1894</v>
       </c>
       <c r="B112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1895</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1896</v>
       </c>
       <c r="B114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1897</v>
       </c>
       <c r="B115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1898</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1899</v>
       </c>
       <c r="B117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1900</v>
       </c>
       <c r="B118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1901</v>
       </c>
       <c r="B119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1902</v>
       </c>
       <c r="B120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1903</v>
       </c>
       <c r="B121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1904</v>
       </c>
       <c r="B122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1905</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1906</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1907</v>
       </c>
       <c r="B125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1908</v>
       </c>
       <c r="B126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1909</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1910</v>
       </c>
       <c r="B128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1911</v>
       </c>
       <c r="B129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1912</v>
       </c>
       <c r="B130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1913</v>
       </c>
       <c r="B131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1914</v>
       </c>
       <c r="B132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1915</v>
       </c>
       <c r="B133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1916</v>
       </c>
       <c r="B134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1917</v>
       </c>
       <c r="B135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1918</v>
       </c>
       <c r="B136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1919</v>
       </c>
       <c r="B137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1920</v>
       </c>
       <c r="B138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1921</v>
       </c>
       <c r="B139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1922</v>
       </c>
       <c r="B140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1923</v>
       </c>
       <c r="B141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1924</v>
       </c>
       <c r="B142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1925</v>
       </c>
       <c r="B143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1926</v>
       </c>
       <c r="B144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1927</v>
       </c>
       <c r="B145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1928</v>
       </c>
       <c r="B146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1929</v>
       </c>
       <c r="B147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1930</v>
       </c>
       <c r="B148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1931</v>
       </c>
       <c r="B149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1932</v>
       </c>
       <c r="B150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1933</v>
       </c>
       <c r="B151">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1934</v>
       </c>
       <c r="B152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1935</v>
       </c>
       <c r="B153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1936</v>
       </c>
       <c r="B154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1937</v>
       </c>
       <c r="B155">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1938</v>
       </c>
       <c r="B156">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1939</v>
       </c>
       <c r="B157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1940</v>
       </c>
       <c r="B158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1941</v>
       </c>
       <c r="B159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1942</v>
       </c>
       <c r="B160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1943</v>
       </c>
       <c r="B161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1944</v>
       </c>
       <c r="B162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1945</v>
       </c>
       <c r="B163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1946</v>
       </c>
       <c r="B164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1947</v>
       </c>
       <c r="B165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1948</v>
       </c>
       <c r="B166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1949</v>
       </c>
       <c r="B167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1950</v>
       </c>
       <c r="B168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1951</v>
       </c>
       <c r="B169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1952</v>
       </c>
       <c r="B170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1953</v>
       </c>
       <c r="B171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1954</v>
       </c>
       <c r="B172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1955</v>
       </c>
       <c r="B173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1956</v>
       </c>
       <c r="B174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1957</v>
       </c>
       <c r="B175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1958</v>
       </c>
       <c r="B176">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1959</v>
       </c>
       <c r="B177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1960</v>
       </c>
       <c r="B178">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1961</v>
       </c>
       <c r="B179">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1962</v>
       </c>
       <c r="B180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1963</v>
       </c>
       <c r="B181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1964</v>
       </c>
       <c r="B182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1965</v>
       </c>
       <c r="B183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1966</v>
       </c>
       <c r="B184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1967</v>
       </c>
       <c r="B185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1968</v>
       </c>
       <c r="B186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1969</v>
       </c>
       <c r="B187">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1970</v>
       </c>
       <c r="B188">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1971</v>
       </c>
       <c r="B189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1972</v>
       </c>
       <c r="B190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1973</v>
       </c>
       <c r="B191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1974</v>
       </c>
       <c r="B192">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1975</v>
       </c>
       <c r="B193">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1976</v>
       </c>
       <c r="B194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1977</v>
       </c>
       <c r="B195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1978</v>
       </c>
       <c r="B196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1979</v>
       </c>
       <c r="B197">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1980</v>
       </c>
       <c r="B198">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1981</v>
       </c>
       <c r="B199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1982</v>
       </c>
       <c r="B200">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1983</v>
       </c>
       <c r="B201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1984</v>
       </c>
       <c r="B202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1985</v>
       </c>
       <c r="B203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>1986</v>
       </c>
       <c r="B204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1987</v>
       </c>
       <c r="B205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1988</v>
       </c>
       <c r="B206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>1989</v>
       </c>
       <c r="B207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>1990</v>
       </c>
       <c r="B208">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1991</v>
       </c>
       <c r="B209">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1992</v>
       </c>
       <c r="B210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1993</v>
       </c>
       <c r="B211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1994</v>
       </c>
       <c r="B212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1995</v>
       </c>
       <c r="B213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>1996</v>
       </c>
       <c r="B214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>1997</v>
       </c>
       <c r="B215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>1998</v>
       </c>
       <c r="B216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>1999</v>
       </c>
       <c r="B217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>2000</v>
       </c>
       <c r="B218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>2001</v>
       </c>
       <c r="B219">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>2002</v>
       </c>
       <c r="B220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>2003</v>
       </c>
       <c r="B221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>2004</v>
       </c>
       <c r="B222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>2005</v>
       </c>
       <c r="B223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>2006</v>
       </c>
       <c r="B224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>2007</v>
       </c>
       <c r="B225">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>2008</v>
       </c>
       <c r="B226">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>2009</v>
       </c>
       <c r="B227">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>2010</v>
       </c>
       <c r="B228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>2011</v>
       </c>
       <c r="B229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>2012</v>
       </c>
       <c r="B230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>2013</v>
       </c>
       <c r="B231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>2014</v>
       </c>
       <c r="B232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>2015</v>
       </c>
       <c r="B233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>2016</v>
       </c>
       <c r="B234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>2017</v>
       </c>
       <c r="B235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>2018</v>
       </c>
       <c r="B236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>2019</v>
       </c>
       <c r="B237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>2020</v>
       </c>
       <c r="B238">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>2021</v>
       </c>
       <c r="B239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>2022</v>
       </c>
       <c r="B240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>2023</v>
       </c>
       <c r="B241">
         <v>0</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/annual_variables.xlsx
+++ b/annual_variables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lyle_\Desktop\4 Yr Sem 2\DS\Banzai-predicament\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C3F27E-0518-42E3-88DA-02CA65CDB055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A2F1F7-FBB0-4765-A737-79932ED5353B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C3AAA45F-9A69-F943-9F42-C649CDEB03DC}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{C3AAA45F-9A69-F943-9F42-C649CDEB03DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -395,8 +387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93EBE920-0F4E-7148-AC17-2BCBE20E885F}">
   <dimension ref="A1:C241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="H236" sqref="H236"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/annual_variables.xlsx
+++ b/annual_variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lyle_\Desktop\4 Yr Sem 2\DS\Banzai-predicament\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasmurray/Banzai-predicament/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C3F27E-0518-42E3-88DA-02CA65CDB055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C916E449-AF28-F74E-A789-F05317DAC282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C3AAA45F-9A69-F943-9F42-C649CDEB03DC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23260" windowHeight="12460" xr2:uid="{C3AAA45F-9A69-F943-9F42-C649CDEB03DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,15 +33,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>years</t>
   </si>
   <si>
-    <t>recession?</t>
+    <t>major_wartime</t>
   </si>
   <si>
-    <t>wartime?</t>
+    <t>wartime</t>
+  </si>
+  <si>
+    <t>recession</t>
   </si>
 </sst>
 </file>
@@ -393,26 +396,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93EBE920-0F4E-7148-AC17-2BCBE20E885F}">
-  <dimension ref="A1:C241"/>
+  <dimension ref="A1:D241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="H236" sqref="H236"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1784</v>
       </c>
@@ -423,7 +429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1785</v>
       </c>
@@ -434,7 +440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1786</v>
       </c>
@@ -445,7 +451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1787</v>
       </c>
@@ -456,7 +462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1788</v>
       </c>
@@ -467,7 +473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1789</v>
       </c>
@@ -478,7 +484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1790</v>
       </c>
@@ -489,7 +495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1791</v>
       </c>
@@ -500,7 +506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1792</v>
       </c>
@@ -511,7 +517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1793</v>
       </c>
@@ -522,7 +528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1794</v>
       </c>
@@ -533,7 +539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1795</v>
       </c>
@@ -544,7 +550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1796</v>
       </c>
@@ -555,7 +561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1797</v>
       </c>
@@ -566,7 +572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1798</v>
       </c>
@@ -577,7 +583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1799</v>
       </c>
@@ -588,7 +594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1800</v>
       </c>
@@ -599,7 +605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1801</v>
       </c>
@@ -610,7 +616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1802</v>
       </c>
@@ -621,7 +627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1803</v>
       </c>
@@ -632,7 +638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1804</v>
       </c>
@@ -643,7 +649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1805</v>
       </c>
@@ -654,7 +660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1806</v>
       </c>
@@ -665,7 +671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1807</v>
       </c>
@@ -676,7 +682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1808</v>
       </c>
@@ -687,7 +693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1809</v>
       </c>
@@ -698,7 +704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1810</v>
       </c>
@@ -709,7 +715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1811</v>
       </c>
@@ -720,7 +726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1812</v>
       </c>
@@ -731,7 +737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1813</v>
       </c>
@@ -742,7 +748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1814</v>
       </c>
@@ -753,7 +759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1815</v>
       </c>
@@ -764,7 +770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1816</v>
       </c>
@@ -775,7 +781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1817</v>
       </c>
@@ -786,7 +792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1818</v>
       </c>
@@ -797,7 +803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1819</v>
       </c>
@@ -808,7 +814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1820</v>
       </c>
@@ -819,7 +825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1821</v>
       </c>
@@ -830,7 +836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1822</v>
       </c>
@@ -841,7 +847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1823</v>
       </c>
@@ -852,7 +858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1824</v>
       </c>
@@ -863,7 +869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1825</v>
       </c>
@@ -874,7 +880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1826</v>
       </c>
@@ -885,7 +891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1827</v>
       </c>
@@ -896,7 +902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1828</v>
       </c>
@@ -907,7 +913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1829</v>
       </c>
@@ -918,7 +924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1830</v>
       </c>
@@ -929,7 +935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1831</v>
       </c>
@@ -940,7 +946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1832</v>
       </c>
@@ -951,7 +957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1833</v>
       </c>
@@ -962,7 +968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1834</v>
       </c>
@@ -973,7 +979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1835</v>
       </c>
@@ -984,7 +990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1836</v>
       </c>
@@ -995,7 +1001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1837</v>
       </c>
@@ -1006,7 +1012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1838</v>
       </c>
@@ -1017,7 +1023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1839</v>
       </c>
@@ -1028,7 +1034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1840</v>
       </c>
@@ -1039,7 +1045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1841</v>
       </c>
@@ -1050,7 +1056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1842</v>
       </c>
@@ -1061,7 +1067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1843</v>
       </c>
@@ -1072,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1844</v>
       </c>
@@ -1083,7 +1089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1845</v>
       </c>
@@ -1094,7 +1100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1846</v>
       </c>
@@ -1105,7 +1111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1847</v>
       </c>
@@ -1116,7 +1122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1848</v>
       </c>
@@ -1127,7 +1133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1849</v>
       </c>
@@ -1138,7 +1144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1850</v>
       </c>
@@ -1149,7 +1155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1851</v>
       </c>
@@ -1160,7 +1166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1852</v>
       </c>
@@ -1171,7 +1177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1853</v>
       </c>
@@ -1182,7 +1188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1854</v>
       </c>
@@ -1193,7 +1199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1855</v>
       </c>
@@ -1204,7 +1210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1856</v>
       </c>
@@ -1215,7 +1221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1857</v>
       </c>
@@ -1226,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1858</v>
       </c>
@@ -1237,7 +1243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1859</v>
       </c>
@@ -1248,7 +1254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1860</v>
       </c>
@@ -1259,7 +1265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1861</v>
       </c>
@@ -1270,7 +1276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1862</v>
       </c>
@@ -1281,7 +1287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1863</v>
       </c>
@@ -1292,7 +1298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1864</v>
       </c>
@@ -1303,7 +1309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1865</v>
       </c>
@@ -1314,7 +1320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1866</v>
       </c>
@@ -1325,7 +1331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1867</v>
       </c>
@@ -1336,7 +1342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1868</v>
       </c>
@@ -1347,7 +1353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1869</v>
       </c>
@@ -1358,7 +1364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1870</v>
       </c>
@@ -1369,7 +1375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1871</v>
       </c>
@@ -1380,7 +1386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1872</v>
       </c>
@@ -1391,7 +1397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1873</v>
       </c>
@@ -1402,7 +1408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1874</v>
       </c>
@@ -1413,7 +1419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1875</v>
       </c>
@@ -1424,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1876</v>
       </c>
@@ -1435,7 +1441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1877</v>
       </c>
@@ -1446,7 +1452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1878</v>
       </c>
@@ -1457,7 +1463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1879</v>
       </c>
@@ -1468,7 +1474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1880</v>
       </c>
@@ -1479,7 +1485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>1881</v>
       </c>
@@ -1490,7 +1496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1882</v>
       </c>
@@ -1501,7 +1507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1883</v>
       </c>
@@ -1512,7 +1518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>1884</v>
       </c>
@@ -1523,7 +1529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1885</v>
       </c>
@@ -1534,7 +1540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>1886</v>
       </c>
@@ -1545,7 +1551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>1887</v>
       </c>
@@ -1556,7 +1562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>1888</v>
       </c>
@@ -1567,7 +1573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>1889</v>
       </c>
@@ -1578,7 +1584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>1890</v>
       </c>
@@ -1589,7 +1595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>1891</v>
       </c>
@@ -1600,7 +1606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>1892</v>
       </c>
@@ -1611,7 +1617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>1893</v>
       </c>
@@ -1622,7 +1628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>1894</v>
       </c>
@@ -1633,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>1895</v>
       </c>
@@ -1644,7 +1650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>1896</v>
       </c>
@@ -1655,7 +1661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>1897</v>
       </c>
@@ -1666,7 +1672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>1898</v>
       </c>
@@ -1677,7 +1683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>1899</v>
       </c>
@@ -1688,7 +1694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>1900</v>
       </c>
@@ -1699,7 +1705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>1901</v>
       </c>
@@ -1710,7 +1716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>1902</v>
       </c>
@@ -1721,7 +1727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>1903</v>
       </c>
@@ -1732,7 +1738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1904</v>
       </c>
@@ -1743,7 +1749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>1905</v>
       </c>
@@ -1754,7 +1760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>1906</v>
       </c>
@@ -1765,7 +1771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>1907</v>
       </c>
@@ -1776,7 +1782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>1908</v>
       </c>
@@ -1787,7 +1793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>1909</v>
       </c>
@@ -1798,7 +1804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>1910</v>
       </c>
@@ -1809,7 +1815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>1911</v>
       </c>
@@ -1820,7 +1826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>1912</v>
       </c>
@@ -1831,7 +1837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>1913</v>
       </c>
@@ -1842,7 +1848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>1914</v>
       </c>
@@ -1853,7 +1859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>1915</v>
       </c>
@@ -1864,7 +1870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>1916</v>
       </c>
@@ -1875,7 +1881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>1917</v>
       </c>
@@ -1886,7 +1892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>1918</v>
       </c>
@@ -1897,7 +1903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>1919</v>
       </c>
@@ -1908,7 +1914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>1920</v>
       </c>
@@ -1919,7 +1925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>1921</v>
       </c>
@@ -1930,7 +1936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>1922</v>
       </c>
@@ -1941,7 +1947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>1923</v>
       </c>
@@ -1952,7 +1958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>1924</v>
       </c>
@@ -1963,7 +1969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>1925</v>
       </c>
@@ -1974,7 +1980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>1926</v>
       </c>
@@ -1985,7 +1991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>1927</v>
       </c>
@@ -1996,7 +2002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>1928</v>
       </c>
@@ -2007,7 +2013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>1929</v>
       </c>
@@ -2018,7 +2024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>1930</v>
       </c>
@@ -2029,7 +2035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>1931</v>
       </c>
@@ -2040,7 +2046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>1932</v>
       </c>
@@ -2051,7 +2057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>1933</v>
       </c>
@@ -2062,7 +2068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>1934</v>
       </c>
@@ -2073,7 +2079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>1935</v>
       </c>
@@ -2084,7 +2090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>1936</v>
       </c>
@@ -2095,7 +2101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>1937</v>
       </c>
@@ -2106,7 +2112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>1938</v>
       </c>
@@ -2117,7 +2123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>1939</v>
       </c>
@@ -2128,7 +2134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>1940</v>
       </c>
@@ -2139,7 +2145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>1941</v>
       </c>
@@ -2150,7 +2156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>1942</v>
       </c>
@@ -2161,7 +2167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>1943</v>
       </c>
@@ -2172,7 +2178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>1944</v>
       </c>
@@ -2183,7 +2189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>1945</v>
       </c>
@@ -2194,7 +2200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>1946</v>
       </c>
@@ -2205,7 +2211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>1947</v>
       </c>
@@ -2216,7 +2222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>1948</v>
       </c>
@@ -2227,7 +2233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>1949</v>
       </c>
@@ -2238,7 +2244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>1950</v>
       </c>
@@ -2249,7 +2255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>1951</v>
       </c>
@@ -2260,7 +2266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>1952</v>
       </c>
@@ -2271,7 +2277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>1953</v>
       </c>
@@ -2282,7 +2288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>1954</v>
       </c>
@@ -2293,7 +2299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>1955</v>
       </c>
@@ -2304,7 +2310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>1956</v>
       </c>
@@ -2315,7 +2321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>1957</v>
       </c>
@@ -2326,7 +2332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>1958</v>
       </c>
@@ -2337,7 +2343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>1959</v>
       </c>
@@ -2348,7 +2354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>1960</v>
       </c>
@@ -2359,7 +2365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>1961</v>
       </c>
@@ -2370,7 +2376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>1962</v>
       </c>
@@ -2381,7 +2387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>1963</v>
       </c>
@@ -2392,7 +2398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>1964</v>
       </c>
@@ -2403,7 +2409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>1965</v>
       </c>
@@ -2414,7 +2420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>1966</v>
       </c>
@@ -2425,7 +2431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>1967</v>
       </c>
@@ -2436,7 +2442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>1968</v>
       </c>
@@ -2447,7 +2453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>1969</v>
       </c>
@@ -2458,7 +2464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>1970</v>
       </c>
@@ -2469,7 +2475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>1971</v>
       </c>
@@ -2480,7 +2486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>1972</v>
       </c>
@@ -2491,7 +2497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>1973</v>
       </c>
@@ -2502,7 +2508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>1974</v>
       </c>
@@ -2513,7 +2519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>1975</v>
       </c>
@@ -2524,7 +2530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>1976</v>
       </c>
@@ -2535,7 +2541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>1977</v>
       </c>
@@ -2546,7 +2552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>1978</v>
       </c>
@@ -2557,7 +2563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>1979</v>
       </c>
@@ -2568,7 +2574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>1980</v>
       </c>
@@ -2579,7 +2585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>1981</v>
       </c>
@@ -2590,7 +2596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>1982</v>
       </c>
@@ -2601,7 +2607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>1983</v>
       </c>
@@ -2612,7 +2618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>1984</v>
       </c>
@@ -2623,7 +2629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>1985</v>
       </c>
@@ -2634,7 +2640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>1986</v>
       </c>
@@ -2645,7 +2651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>1987</v>
       </c>
@@ -2656,7 +2662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>1988</v>
       </c>
@@ -2667,7 +2673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>1989</v>
       </c>
@@ -2678,7 +2684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>1990</v>
       </c>
@@ -2689,7 +2695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>1991</v>
       </c>
@@ -2700,7 +2706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>1992</v>
       </c>
@@ -2711,7 +2717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>1993</v>
       </c>
@@ -2722,7 +2728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>1994</v>
       </c>
@@ -2733,7 +2739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>1995</v>
       </c>
@@ -2744,7 +2750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>1996</v>
       </c>
@@ -2755,7 +2761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>1997</v>
       </c>
@@ -2766,7 +2772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>1998</v>
       </c>
@@ -2777,7 +2783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>1999</v>
       </c>
@@ -2788,7 +2794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>2000</v>
       </c>
@@ -2799,7 +2805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>2001</v>
       </c>
@@ -2810,7 +2816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>2002</v>
       </c>
@@ -2821,7 +2827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>2003</v>
       </c>
@@ -2832,7 +2838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>2004</v>
       </c>
@@ -2843,7 +2849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>2005</v>
       </c>
@@ -2854,7 +2860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>2006</v>
       </c>
@@ -2865,7 +2871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>2007</v>
       </c>
@@ -2876,7 +2882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>2008</v>
       </c>
@@ -2887,7 +2893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>2009</v>
       </c>
@@ -2898,7 +2904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>2010</v>
       </c>
@@ -2909,7 +2915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>2011</v>
       </c>
@@ -2920,7 +2926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>2012</v>
       </c>
@@ -2931,7 +2937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>2013</v>
       </c>
@@ -2942,7 +2948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>2014</v>
       </c>
@@ -2953,7 +2959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>2015</v>
       </c>
@@ -2964,7 +2970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>2016</v>
       </c>
@@ -2975,7 +2981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>2017</v>
       </c>
@@ -2986,7 +2992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>2018</v>
       </c>
@@ -2997,7 +3003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>2019</v>
       </c>
@@ -3008,7 +3014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>2020</v>
       </c>
@@ -3019,7 +3025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>2021</v>
       </c>
@@ -3030,7 +3036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>2022</v>
       </c>
@@ -3041,7 +3047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>2023</v>
       </c>
